--- a/public/template/student.xlsx
+++ b/public/template/student.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\SEC\backend\web\downloads\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoyu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2A5000-90A8-42E7-8C0B-1F3F21746229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>学号</t>
   </si>
@@ -41,9 +42,6 @@
     <t>院系</t>
   </si>
   <si>
-    <t>个人简介</t>
-  </si>
-  <si>
     <t>常用邮箱</t>
   </si>
   <si>
@@ -62,9 +60,6 @@
     <t>计算机系</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>907564@qq.com</t>
   </si>
   <si>
@@ -78,13 +73,45 @@
   </si>
   <si>
     <t>12345@qq.com</t>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb111111122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb222222222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +124,22 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -128,9 +165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -192,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +263,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,21 +507,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,73 +546,83 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>11111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>15029070188</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>15029070188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>222222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>13954236987</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -548,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -561,7 +643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
